--- a/data/Simulations/PT1/Market Data/PT1_market_data_2040.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DD73E4-E623-4D71-882B-3C0E4D80116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94F5A0-1784-4231-9FDE-3E2252A9462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1906,12 +1906,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1957,9 +1957,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>31.17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2555,9 +2555,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>10.551752762133248</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>23.976234024951985</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>16.418748276994769</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>7.800562774938296</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>3.3146867315601822</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3178,9 +3178,9 @@
       <selection activeCell="B2" sqref="B2:Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>49.057363627090702</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>49.057363627090702</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>64.724782911598496</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>51.896945260460591</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3775,9 +3775,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>19.744483964326822</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>22.727702022730984</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>19.744483964326822</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>24.318751653879875</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>

--- a/data/Simulations/PT1/Market Data/PT1_market_data_2040.xlsx
+++ b/data/Simulations/PT1/Market Data/PT1_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\PT1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC94F5A0-1784-4231-9FDE-3E2252A9462D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DEE6D-667A-4B49-BE34-C7CCCA878076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,13 @@
     <sheet name="Csr, Winter" sheetId="3" r:id="rId3"/>
     <sheet name="Ctr_up, Winter" sheetId="4" r:id="rId4"/>
     <sheet name="Ctr_down, Winter" sheetId="5" r:id="rId5"/>
+    <sheet name="Cp, Summer" sheetId="6" r:id="rId6"/>
+    <sheet name="Csr, Summer" sheetId="7" r:id="rId7"/>
+    <sheet name="Ctr_up, Summer" sheetId="8" r:id="rId8"/>
+    <sheet name="Ctr_down, Summer" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>Year</t>
   </si>
@@ -67,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,10 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +132,11 @@
       <sheetName val="Tertiary Reserve Up, Winter"/>
       <sheetName val="Tertiary Reserve Down, Winter"/>
       <sheetName val="Flexibility, Winter"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1632,6 +1648,1495 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>35.549999999999997</v>
+          </cell>
+          <cell r="C2">
+            <v>27.82</v>
+          </cell>
+          <cell r="D2">
+            <v>26.69</v>
+          </cell>
+          <cell r="E2">
+            <v>26</v>
+          </cell>
+          <cell r="F2">
+            <v>26</v>
+          </cell>
+          <cell r="G2">
+            <v>26.22</v>
+          </cell>
+          <cell r="H2">
+            <v>27.18</v>
+          </cell>
+          <cell r="I2">
+            <v>27.7</v>
+          </cell>
+          <cell r="J2">
+            <v>31.63</v>
+          </cell>
+          <cell r="K2">
+            <v>34.07</v>
+          </cell>
+          <cell r="L2">
+            <v>31.26</v>
+          </cell>
+          <cell r="M2">
+            <v>27.77</v>
+          </cell>
+          <cell r="N2">
+            <v>33</v>
+          </cell>
+          <cell r="O2">
+            <v>34.99</v>
+          </cell>
+          <cell r="P2">
+            <v>32.99</v>
+          </cell>
+          <cell r="Q2">
+            <v>33.53</v>
+          </cell>
+          <cell r="R2">
+            <v>34.07</v>
+          </cell>
+          <cell r="S2">
+            <v>32.57</v>
+          </cell>
+          <cell r="T2">
+            <v>27.77</v>
+          </cell>
+          <cell r="U2">
+            <v>29.36</v>
+          </cell>
+          <cell r="V2">
+            <v>34.07</v>
+          </cell>
+          <cell r="W2">
+            <v>37.11</v>
+          </cell>
+          <cell r="X2">
+            <v>36.92</v>
+          </cell>
+          <cell r="Y2">
+            <v>31.14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>34.47</v>
+          </cell>
+          <cell r="C3">
+            <v>29.79</v>
+          </cell>
+          <cell r="D3">
+            <v>28.16</v>
+          </cell>
+          <cell r="E3">
+            <v>27.74</v>
+          </cell>
+          <cell r="F3">
+            <v>27</v>
+          </cell>
+          <cell r="G3">
+            <v>26.77</v>
+          </cell>
+          <cell r="H3">
+            <v>27</v>
+          </cell>
+          <cell r="I3">
+            <v>27.85</v>
+          </cell>
+          <cell r="J3">
+            <v>33.26</v>
+          </cell>
+          <cell r="K3">
+            <v>36.4</v>
+          </cell>
+          <cell r="L3">
+            <v>36.15</v>
+          </cell>
+          <cell r="M3">
+            <v>36.520000000000003</v>
+          </cell>
+          <cell r="N3">
+            <v>36.979999999999997</v>
+          </cell>
+          <cell r="O3">
+            <v>37.5</v>
+          </cell>
+          <cell r="P3">
+            <v>37.130000000000003</v>
+          </cell>
+          <cell r="Q3">
+            <v>36.57</v>
+          </cell>
+          <cell r="R3">
+            <v>36.200000000000003</v>
+          </cell>
+          <cell r="S3">
+            <v>38.299999999999997</v>
+          </cell>
+          <cell r="T3">
+            <v>37.549999999999997</v>
+          </cell>
+          <cell r="U3">
+            <v>37</v>
+          </cell>
+          <cell r="V3">
+            <v>35.42</v>
+          </cell>
+          <cell r="W3">
+            <v>36.200000000000003</v>
+          </cell>
+          <cell r="X3">
+            <v>35.01</v>
+          </cell>
+          <cell r="Y3">
+            <v>31.97</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>36.19</v>
+          </cell>
+          <cell r="C4">
+            <v>32.5</v>
+          </cell>
+          <cell r="D4">
+            <v>27.82</v>
+          </cell>
+          <cell r="E4">
+            <v>27.5</v>
+          </cell>
+          <cell r="F4">
+            <v>27.04</v>
+          </cell>
+          <cell r="G4">
+            <v>27.82</v>
+          </cell>
+          <cell r="H4">
+            <v>29.24</v>
+          </cell>
+          <cell r="I4">
+            <v>36.03</v>
+          </cell>
+          <cell r="J4">
+            <v>36.22</v>
+          </cell>
+          <cell r="K4">
+            <v>37</v>
+          </cell>
+          <cell r="L4">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="M4">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="N4">
+            <v>37.65</v>
+          </cell>
+          <cell r="O4">
+            <v>39.93</v>
+          </cell>
+          <cell r="P4">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="Q4">
+            <v>37.65</v>
+          </cell>
+          <cell r="R4">
+            <v>37.51</v>
+          </cell>
+          <cell r="S4">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="T4">
+            <v>36.56</v>
+          </cell>
+          <cell r="U4">
+            <v>36.32</v>
+          </cell>
+          <cell r="V4">
+            <v>36.5</v>
+          </cell>
+          <cell r="W4">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>36.72</v>
+          </cell>
+          <cell r="Y4">
+            <v>34.72</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>34.65</v>
+          </cell>
+          <cell r="C5">
+            <v>27.5</v>
+          </cell>
+          <cell r="D5">
+            <v>25.7</v>
+          </cell>
+          <cell r="E5">
+            <v>25.1</v>
+          </cell>
+          <cell r="F5">
+            <v>25.1</v>
+          </cell>
+          <cell r="G5">
+            <v>26.51</v>
+          </cell>
+          <cell r="H5">
+            <v>34.64</v>
+          </cell>
+          <cell r="I5">
+            <v>39.270000000000003</v>
+          </cell>
+          <cell r="J5">
+            <v>38.119999999999997</v>
+          </cell>
+          <cell r="K5">
+            <v>37.68</v>
+          </cell>
+          <cell r="L5">
+            <v>34.950000000000003</v>
+          </cell>
+          <cell r="M5">
+            <v>33.659999999999997</v>
+          </cell>
+          <cell r="N5">
+            <v>34.28</v>
+          </cell>
+          <cell r="O5">
+            <v>35</v>
+          </cell>
+          <cell r="P5">
+            <v>34.65</v>
+          </cell>
+          <cell r="Q5">
+            <v>32.840000000000003</v>
+          </cell>
+          <cell r="R5">
+            <v>34</v>
+          </cell>
+          <cell r="S5">
+            <v>37.409999999999997</v>
+          </cell>
+          <cell r="T5">
+            <v>36.18</v>
+          </cell>
+          <cell r="U5">
+            <v>36.1</v>
+          </cell>
+          <cell r="V5">
+            <v>38.99</v>
+          </cell>
+          <cell r="W5">
+            <v>39</v>
+          </cell>
+          <cell r="X5">
+            <v>38.99</v>
+          </cell>
+          <cell r="Y5">
+            <v>34.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>35.299999999999997</v>
+          </cell>
+          <cell r="C6">
+            <v>30</v>
+          </cell>
+          <cell r="D6">
+            <v>27</v>
+          </cell>
+          <cell r="E6">
+            <v>26.5</v>
+          </cell>
+          <cell r="F6">
+            <v>26.5</v>
+          </cell>
+          <cell r="G6">
+            <v>27.2</v>
+          </cell>
+          <cell r="H6">
+            <v>28.56</v>
+          </cell>
+          <cell r="I6">
+            <v>28.34</v>
+          </cell>
+          <cell r="J6">
+            <v>30.02</v>
+          </cell>
+          <cell r="K6">
+            <v>31.18</v>
+          </cell>
+          <cell r="L6">
+            <v>30.53</v>
+          </cell>
+          <cell r="M6">
+            <v>30.47</v>
+          </cell>
+          <cell r="N6">
+            <v>33.49</v>
+          </cell>
+          <cell r="O6">
+            <v>36.049999999999997</v>
+          </cell>
+          <cell r="P6">
+            <v>35.74</v>
+          </cell>
+          <cell r="Q6">
+            <v>34.49</v>
+          </cell>
+          <cell r="R6">
+            <v>33.99</v>
+          </cell>
+          <cell r="S6">
+            <v>33.49</v>
+          </cell>
+          <cell r="T6">
+            <v>32.24</v>
+          </cell>
+          <cell r="U6">
+            <v>35.01</v>
+          </cell>
+          <cell r="V6">
+            <v>36.049999999999997</v>
+          </cell>
+          <cell r="W6">
+            <v>37</v>
+          </cell>
+          <cell r="X6">
+            <v>37</v>
+          </cell>
+          <cell r="Y6">
+            <v>36</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>6.52</v>
+          </cell>
+          <cell r="C2">
+            <v>10.56</v>
+          </cell>
+          <cell r="D2">
+            <v>5.92</v>
+          </cell>
+          <cell r="E2">
+            <v>6.15</v>
+          </cell>
+          <cell r="F2">
+            <v>6.79</v>
+          </cell>
+          <cell r="G2">
+            <v>6.65</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2">
+            <v>10.19</v>
+          </cell>
+          <cell r="J2">
+            <v>9.76</v>
+          </cell>
+          <cell r="K2">
+            <v>8.0500000000000007</v>
+          </cell>
+          <cell r="L2">
+            <v>8.66</v>
+          </cell>
+          <cell r="M2">
+            <v>10</v>
+          </cell>
+          <cell r="N2">
+            <v>7.8</v>
+          </cell>
+          <cell r="O2">
+            <v>5.82</v>
+          </cell>
+          <cell r="P2">
+            <v>6.56</v>
+          </cell>
+          <cell r="Q2">
+            <v>8.0399999999999991</v>
+          </cell>
+          <cell r="R2">
+            <v>7.63</v>
+          </cell>
+          <cell r="S2">
+            <v>8.42</v>
+          </cell>
+          <cell r="T2">
+            <v>4.66</v>
+          </cell>
+          <cell r="U2">
+            <v>4.32</v>
+          </cell>
+          <cell r="V2">
+            <v>2.81</v>
+          </cell>
+          <cell r="W2">
+            <v>2.81</v>
+          </cell>
+          <cell r="X2">
+            <v>3.33</v>
+          </cell>
+          <cell r="Y2">
+            <v>8.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>11.27</v>
+          </cell>
+          <cell r="C3">
+            <v>12.24</v>
+          </cell>
+          <cell r="D3">
+            <v>8.3699999999999992</v>
+          </cell>
+          <cell r="E3">
+            <v>8.5399999999999991</v>
+          </cell>
+          <cell r="F3">
+            <v>8.84</v>
+          </cell>
+          <cell r="G3">
+            <v>8.93</v>
+          </cell>
+          <cell r="H3">
+            <v>17.93</v>
+          </cell>
+          <cell r="I3">
+            <v>15.6</v>
+          </cell>
+          <cell r="J3">
+            <v>9.8800000000000008</v>
+          </cell>
+          <cell r="K3">
+            <v>9.6300000000000008</v>
+          </cell>
+          <cell r="L3">
+            <v>7.71</v>
+          </cell>
+          <cell r="M3">
+            <v>7.97</v>
+          </cell>
+          <cell r="N3">
+            <v>9.08</v>
+          </cell>
+          <cell r="O3">
+            <v>7.13</v>
+          </cell>
+          <cell r="P3">
+            <v>7.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>7.84</v>
+          </cell>
+          <cell r="R3">
+            <v>7.6</v>
+          </cell>
+          <cell r="S3">
+            <v>5.7</v>
+          </cell>
+          <cell r="T3">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="U3">
+            <v>4.2300000000000004</v>
+          </cell>
+          <cell r="V3">
+            <v>2.38</v>
+          </cell>
+          <cell r="W3">
+            <v>2.8</v>
+          </cell>
+          <cell r="X3">
+            <v>2.09</v>
+          </cell>
+          <cell r="Y3">
+            <v>12.33</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.88</v>
+          </cell>
+          <cell r="C4">
+            <v>8.98</v>
+          </cell>
+          <cell r="D4">
+            <v>7.64</v>
+          </cell>
+          <cell r="E4">
+            <v>7.72</v>
+          </cell>
+          <cell r="F4">
+            <v>7.64</v>
+          </cell>
+          <cell r="G4">
+            <v>7.72</v>
+          </cell>
+          <cell r="H4">
+            <v>8.23</v>
+          </cell>
+          <cell r="I4">
+            <v>7.19</v>
+          </cell>
+          <cell r="J4">
+            <v>6.72</v>
+          </cell>
+          <cell r="K4">
+            <v>6.56</v>
+          </cell>
+          <cell r="L4">
+            <v>5.75</v>
+          </cell>
+          <cell r="M4">
+            <v>4.9400000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="O4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="P4">
+            <v>6.11</v>
+          </cell>
+          <cell r="Q4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="R4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>4.66</v>
+          </cell>
+          <cell r="T4">
+            <v>5.58</v>
+          </cell>
+          <cell r="U4">
+            <v>5.56</v>
+          </cell>
+          <cell r="V4">
+            <v>5.09</v>
+          </cell>
+          <cell r="W4">
+            <v>4.33</v>
+          </cell>
+          <cell r="X4">
+            <v>4.62</v>
+          </cell>
+          <cell r="Y4">
+            <v>6.95</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>11.09</v>
+          </cell>
+          <cell r="C5">
+            <v>18.989999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>10.62</v>
+          </cell>
+          <cell r="E5">
+            <v>10.62</v>
+          </cell>
+          <cell r="F5">
+            <v>10.62</v>
+          </cell>
+          <cell r="G5">
+            <v>10.62</v>
+          </cell>
+          <cell r="H5">
+            <v>10.42</v>
+          </cell>
+          <cell r="I5">
+            <v>6.72</v>
+          </cell>
+          <cell r="J5">
+            <v>6.96</v>
+          </cell>
+          <cell r="K5">
+            <v>7.46</v>
+          </cell>
+          <cell r="L5">
+            <v>10.48</v>
+          </cell>
+          <cell r="M5">
+            <v>9.4</v>
+          </cell>
+          <cell r="N5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="O5">
+            <v>8.6300000000000008</v>
+          </cell>
+          <cell r="P5">
+            <v>8.4600000000000009</v>
+          </cell>
+          <cell r="Q5">
+            <v>10.89</v>
+          </cell>
+          <cell r="R5">
+            <v>9.8699999999999992</v>
+          </cell>
+          <cell r="S5">
+            <v>8.06</v>
+          </cell>
+          <cell r="T5">
+            <v>8.06</v>
+          </cell>
+          <cell r="U5">
+            <v>8.75</v>
+          </cell>
+          <cell r="V5">
+            <v>6.17</v>
+          </cell>
+          <cell r="W5">
+            <v>6.6</v>
+          </cell>
+          <cell r="X5">
+            <v>5.72</v>
+          </cell>
+          <cell r="Y5">
+            <v>10.26</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7.58</v>
+          </cell>
+          <cell r="C6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="D6">
+            <v>6.33</v>
+          </cell>
+          <cell r="E6">
+            <v>6.8</v>
+          </cell>
+          <cell r="F6">
+            <v>6.8</v>
+          </cell>
+          <cell r="G6">
+            <v>6.25</v>
+          </cell>
+          <cell r="H6">
+            <v>7.77</v>
+          </cell>
+          <cell r="I6">
+            <v>9.4499999999999993</v>
+          </cell>
+          <cell r="J6">
+            <v>9.2200000000000006</v>
+          </cell>
+          <cell r="K6">
+            <v>8.6199999999999992</v>
+          </cell>
+          <cell r="L6">
+            <v>7.09</v>
+          </cell>
+          <cell r="M6">
+            <v>6.43</v>
+          </cell>
+          <cell r="N6">
+            <v>5.85</v>
+          </cell>
+          <cell r="O6">
+            <v>6.44</v>
+          </cell>
+          <cell r="P6">
+            <v>6.79</v>
+          </cell>
+          <cell r="Q6">
+            <v>8.14</v>
+          </cell>
+          <cell r="R6">
+            <v>8.51</v>
+          </cell>
+          <cell r="S6">
+            <v>9.17</v>
+          </cell>
+          <cell r="T6">
+            <v>8.7899999999999991</v>
+          </cell>
+          <cell r="U6">
+            <v>7.6</v>
+          </cell>
+          <cell r="V6">
+            <v>6.29</v>
+          </cell>
+          <cell r="W6">
+            <v>6.62</v>
+          </cell>
+          <cell r="X6">
+            <v>6.53</v>
+          </cell>
+          <cell r="Y6">
+            <v>7.99</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>36.4</v>
+          </cell>
+          <cell r="C2">
+            <v>36.4</v>
+          </cell>
+          <cell r="D2">
+            <v>35.69</v>
+          </cell>
+          <cell r="E2">
+            <v>35.69</v>
+          </cell>
+          <cell r="F2">
+            <v>35.69</v>
+          </cell>
+          <cell r="G2">
+            <v>35.69</v>
+          </cell>
+          <cell r="H2">
+            <v>35.69</v>
+          </cell>
+          <cell r="I2">
+            <v>47.22</v>
+          </cell>
+          <cell r="J2">
+            <v>36.4</v>
+          </cell>
+          <cell r="K2">
+            <v>36.4</v>
+          </cell>
+          <cell r="L2">
+            <v>47.22</v>
+          </cell>
+          <cell r="M2">
+            <v>47.22</v>
+          </cell>
+          <cell r="N2">
+            <v>42</v>
+          </cell>
+          <cell r="O2">
+            <v>38</v>
+          </cell>
+          <cell r="P2">
+            <v>38</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.22</v>
+          </cell>
+          <cell r="R2">
+            <v>47.22</v>
+          </cell>
+          <cell r="S2">
+            <v>47.22</v>
+          </cell>
+          <cell r="T2">
+            <v>47.22</v>
+          </cell>
+          <cell r="U2">
+            <v>47.22</v>
+          </cell>
+          <cell r="V2">
+            <v>47.22</v>
+          </cell>
+          <cell r="W2">
+            <v>47.22</v>
+          </cell>
+          <cell r="X2">
+            <v>47.22</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.22</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.22</v>
+          </cell>
+          <cell r="C3">
+            <v>47.22</v>
+          </cell>
+          <cell r="D3">
+            <v>47.22</v>
+          </cell>
+          <cell r="E3">
+            <v>36</v>
+          </cell>
+          <cell r="F3">
+            <v>35.69</v>
+          </cell>
+          <cell r="G3">
+            <v>35.69</v>
+          </cell>
+          <cell r="H3">
+            <v>35.69</v>
+          </cell>
+          <cell r="I3">
+            <v>47.22</v>
+          </cell>
+          <cell r="J3">
+            <v>47.22</v>
+          </cell>
+          <cell r="K3">
+            <v>47.22</v>
+          </cell>
+          <cell r="L3">
+            <v>47.22</v>
+          </cell>
+          <cell r="M3">
+            <v>47.22</v>
+          </cell>
+          <cell r="N3">
+            <v>47.22</v>
+          </cell>
+          <cell r="O3">
+            <v>47.22</v>
+          </cell>
+          <cell r="P3">
+            <v>47.22</v>
+          </cell>
+          <cell r="Q3">
+            <v>47.22</v>
+          </cell>
+          <cell r="R3">
+            <v>47.22</v>
+          </cell>
+          <cell r="S3">
+            <v>47.22</v>
+          </cell>
+          <cell r="T3">
+            <v>47.22</v>
+          </cell>
+          <cell r="U3">
+            <v>47.22</v>
+          </cell>
+          <cell r="V3">
+            <v>47.22</v>
+          </cell>
+          <cell r="W3">
+            <v>47.22</v>
+          </cell>
+          <cell r="X3">
+            <v>36</v>
+          </cell>
+          <cell r="Y3">
+            <v>47.22</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>47.22</v>
+          </cell>
+          <cell r="C4">
+            <v>37.4</v>
+          </cell>
+          <cell r="D4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="E4">
+            <v>37.4</v>
+          </cell>
+          <cell r="F4">
+            <v>35.69</v>
+          </cell>
+          <cell r="G4">
+            <v>37.4</v>
+          </cell>
+          <cell r="H4">
+            <v>37.4</v>
+          </cell>
+          <cell r="I4">
+            <v>37.4</v>
+          </cell>
+          <cell r="J4">
+            <v>37.4</v>
+          </cell>
+          <cell r="K4">
+            <v>38</v>
+          </cell>
+          <cell r="L4">
+            <v>38</v>
+          </cell>
+          <cell r="M4">
+            <v>47.22</v>
+          </cell>
+          <cell r="N4">
+            <v>47.22</v>
+          </cell>
+          <cell r="O4">
+            <v>47.22</v>
+          </cell>
+          <cell r="P4">
+            <v>47.22</v>
+          </cell>
+          <cell r="Q4">
+            <v>47.22</v>
+          </cell>
+          <cell r="R4">
+            <v>47.22</v>
+          </cell>
+          <cell r="S4">
+            <v>47.22</v>
+          </cell>
+          <cell r="T4">
+            <v>47.22</v>
+          </cell>
+          <cell r="U4">
+            <v>47.22</v>
+          </cell>
+          <cell r="V4">
+            <v>47.22</v>
+          </cell>
+          <cell r="W4">
+            <v>95</v>
+          </cell>
+          <cell r="X4">
+            <v>47.22</v>
+          </cell>
+          <cell r="Y4">
+            <v>47.22</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>37</v>
+          </cell>
+          <cell r="C5">
+            <v>35.69</v>
+          </cell>
+          <cell r="D5">
+            <v>35.69</v>
+          </cell>
+          <cell r="E5">
+            <v>35.69</v>
+          </cell>
+          <cell r="F5">
+            <v>35.69</v>
+          </cell>
+          <cell r="G5">
+            <v>35.69</v>
+          </cell>
+          <cell r="H5">
+            <v>47.22</v>
+          </cell>
+          <cell r="I5">
+            <v>47.22</v>
+          </cell>
+          <cell r="J5">
+            <v>47.22</v>
+          </cell>
+          <cell r="K5">
+            <v>47.22</v>
+          </cell>
+          <cell r="L5">
+            <v>36</v>
+          </cell>
+          <cell r="M5">
+            <v>38.4</v>
+          </cell>
+          <cell r="N5">
+            <v>47.22</v>
+          </cell>
+          <cell r="O5">
+            <v>47.22</v>
+          </cell>
+          <cell r="P5">
+            <v>47.22</v>
+          </cell>
+          <cell r="Q5">
+            <v>47.22</v>
+          </cell>
+          <cell r="R5">
+            <v>47.22</v>
+          </cell>
+          <cell r="S5">
+            <v>47.22</v>
+          </cell>
+          <cell r="T5">
+            <v>47.22</v>
+          </cell>
+          <cell r="U5">
+            <v>47.22</v>
+          </cell>
+          <cell r="V5">
+            <v>47.12</v>
+          </cell>
+          <cell r="W5">
+            <v>47.22</v>
+          </cell>
+          <cell r="X5">
+            <v>47.22</v>
+          </cell>
+          <cell r="Y5">
+            <v>47.043333333333329</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>46.66</v>
+          </cell>
+          <cell r="C6">
+            <v>46.69</v>
+          </cell>
+          <cell r="D6">
+            <v>37.4</v>
+          </cell>
+          <cell r="E6">
+            <v>37.4</v>
+          </cell>
+          <cell r="F6">
+            <v>37.4</v>
+          </cell>
+          <cell r="G6">
+            <v>37.4</v>
+          </cell>
+          <cell r="H6">
+            <v>47.22</v>
+          </cell>
+          <cell r="I6">
+            <v>64.64</v>
+          </cell>
+          <cell r="J6">
+            <v>37.4</v>
+          </cell>
+          <cell r="K6">
+            <v>37.4</v>
+          </cell>
+          <cell r="L6">
+            <v>36</v>
+          </cell>
+          <cell r="M6">
+            <v>37.4</v>
+          </cell>
+          <cell r="N6">
+            <v>46.69</v>
+          </cell>
+          <cell r="O6">
+            <v>46.69</v>
+          </cell>
+          <cell r="P6">
+            <v>46.69</v>
+          </cell>
+          <cell r="Q6">
+            <v>46.69</v>
+          </cell>
+          <cell r="R6">
+            <v>46.69</v>
+          </cell>
+          <cell r="S6">
+            <v>46.69</v>
+          </cell>
+          <cell r="T6">
+            <v>46.69</v>
+          </cell>
+          <cell r="U6">
+            <v>46.69</v>
+          </cell>
+          <cell r="V6">
+            <v>46.69</v>
+          </cell>
+          <cell r="W6">
+            <v>46.58</v>
+          </cell>
+          <cell r="X6">
+            <v>46.56</v>
+          </cell>
+          <cell r="Y6">
+            <v>46.69</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>27.98</v>
+          </cell>
+          <cell r="C2">
+            <v>22.02</v>
+          </cell>
+          <cell r="D2">
+            <v>22.02</v>
+          </cell>
+          <cell r="E2">
+            <v>39.4</v>
+          </cell>
+          <cell r="F2">
+            <v>22.02</v>
+          </cell>
+          <cell r="G2">
+            <v>22.02</v>
+          </cell>
+          <cell r="H2">
+            <v>24.515000000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>24.7575</v>
+          </cell>
+          <cell r="J2">
+            <v>27.98</v>
+          </cell>
+          <cell r="K2">
+            <v>20.36</v>
+          </cell>
+          <cell r="L2">
+            <v>52.5</v>
+          </cell>
+          <cell r="M2">
+            <v>60</v>
+          </cell>
+          <cell r="N2">
+            <v>29.01</v>
+          </cell>
+          <cell r="O2">
+            <v>29.02</v>
+          </cell>
+          <cell r="P2">
+            <v>29.02</v>
+          </cell>
+          <cell r="Q2">
+            <v>50.4</v>
+          </cell>
+          <cell r="R2">
+            <v>50.4</v>
+          </cell>
+          <cell r="S2">
+            <v>50.4</v>
+          </cell>
+          <cell r="T2">
+            <v>50.4</v>
+          </cell>
+          <cell r="U2">
+            <v>50.4</v>
+          </cell>
+          <cell r="V2">
+            <v>30</v>
+          </cell>
+          <cell r="W2">
+            <v>50.4</v>
+          </cell>
+          <cell r="X2">
+            <v>27.98</v>
+          </cell>
+          <cell r="Y2">
+            <v>22.02</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>50.4</v>
+          </cell>
+          <cell r="C3">
+            <v>26</v>
+          </cell>
+          <cell r="D3">
+            <v>26</v>
+          </cell>
+          <cell r="E3">
+            <v>27.74</v>
+          </cell>
+          <cell r="F3">
+            <v>33.606666666666662</v>
+          </cell>
+          <cell r="G3">
+            <v>30.71</v>
+          </cell>
+          <cell r="H3">
+            <v>24.515000000000001</v>
+          </cell>
+          <cell r="I3">
+            <v>22.02</v>
+          </cell>
+          <cell r="J3">
+            <v>24.7575</v>
+          </cell>
+          <cell r="K3">
+            <v>27.98</v>
+          </cell>
+          <cell r="L3">
+            <v>52.5</v>
+          </cell>
+          <cell r="M3">
+            <v>52.5</v>
+          </cell>
+          <cell r="N3">
+            <v>52.5</v>
+          </cell>
+          <cell r="O3">
+            <v>50.4</v>
+          </cell>
+          <cell r="P3">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q3">
+            <v>50.4</v>
+          </cell>
+          <cell r="R3">
+            <v>50.4</v>
+          </cell>
+          <cell r="S3">
+            <v>29.98</v>
+          </cell>
+          <cell r="T3">
+            <v>27.98</v>
+          </cell>
+          <cell r="U3">
+            <v>27.98</v>
+          </cell>
+          <cell r="V3">
+            <v>50.4</v>
+          </cell>
+          <cell r="W3">
+            <v>28</v>
+          </cell>
+          <cell r="X3">
+            <v>50.4</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>50.4</v>
+          </cell>
+          <cell r="C4">
+            <v>43.2</v>
+          </cell>
+          <cell r="D4">
+            <v>43.2</v>
+          </cell>
+          <cell r="E4">
+            <v>39.4</v>
+          </cell>
+          <cell r="F4">
+            <v>39.4</v>
+          </cell>
+          <cell r="G4">
+            <v>39.4</v>
+          </cell>
+          <cell r="H4">
+            <v>27.98</v>
+          </cell>
+          <cell r="I4">
+            <v>22.02</v>
+          </cell>
+          <cell r="J4">
+            <v>22.02</v>
+          </cell>
+          <cell r="K4">
+            <v>27.98</v>
+          </cell>
+          <cell r="L4">
+            <v>52.5</v>
+          </cell>
+          <cell r="M4">
+            <v>27.98</v>
+          </cell>
+          <cell r="N4">
+            <v>52.5</v>
+          </cell>
+          <cell r="O4">
+            <v>50.4</v>
+          </cell>
+          <cell r="P4">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q4">
+            <v>27.98</v>
+          </cell>
+          <cell r="R4">
+            <v>50.4</v>
+          </cell>
+          <cell r="S4">
+            <v>50.4</v>
+          </cell>
+          <cell r="T4">
+            <v>50.4</v>
+          </cell>
+          <cell r="U4">
+            <v>50.4</v>
+          </cell>
+          <cell r="V4">
+            <v>50.4</v>
+          </cell>
+          <cell r="W4">
+            <v>50.4</v>
+          </cell>
+          <cell r="X4">
+            <v>50.4</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>15.6</v>
+          </cell>
+          <cell r="C5">
+            <v>43.2</v>
+          </cell>
+          <cell r="D5">
+            <v>37.466666666666669</v>
+          </cell>
+          <cell r="E5">
+            <v>33.57</v>
+          </cell>
+          <cell r="F5">
+            <v>39.4</v>
+          </cell>
+          <cell r="G5">
+            <v>30.71</v>
+          </cell>
+          <cell r="H5">
+            <v>24.515000000000001</v>
+          </cell>
+          <cell r="I5">
+            <v>27.98</v>
+          </cell>
+          <cell r="J5">
+            <v>27.98</v>
+          </cell>
+          <cell r="K5">
+            <v>24.89</v>
+          </cell>
+          <cell r="L5">
+            <v>26</v>
+          </cell>
+          <cell r="M5">
+            <v>35.503333333333337</v>
+          </cell>
+          <cell r="N5">
+            <v>52.5</v>
+          </cell>
+          <cell r="O5">
+            <v>50.4</v>
+          </cell>
+          <cell r="P5">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q5">
+            <v>50.4</v>
+          </cell>
+          <cell r="R5">
+            <v>50.4</v>
+          </cell>
+          <cell r="S5">
+            <v>50.4</v>
+          </cell>
+          <cell r="T5">
+            <v>27.98</v>
+          </cell>
+          <cell r="U5">
+            <v>50.4</v>
+          </cell>
+          <cell r="V5">
+            <v>50.4</v>
+          </cell>
+          <cell r="W5">
+            <v>27.98</v>
+          </cell>
+          <cell r="X5">
+            <v>22.02</v>
+          </cell>
+          <cell r="Y5">
+            <v>50.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>50.4</v>
+          </cell>
+          <cell r="C6">
+            <v>18.71</v>
+          </cell>
+          <cell r="D6">
+            <v>43.2</v>
+          </cell>
+          <cell r="E6">
+            <v>33.57</v>
+          </cell>
+          <cell r="F6">
+            <v>33.606666666666662</v>
+          </cell>
+          <cell r="G6">
+            <v>30.71</v>
+          </cell>
+          <cell r="H6">
+            <v>21.05</v>
+          </cell>
+          <cell r="I6">
+            <v>21.05</v>
+          </cell>
+          <cell r="J6">
+            <v>21.05</v>
+          </cell>
+          <cell r="K6">
+            <v>18.71</v>
+          </cell>
+          <cell r="L6">
+            <v>18.71</v>
+          </cell>
+          <cell r="M6">
+            <v>26.03</v>
+          </cell>
+          <cell r="N6">
+            <v>52.5</v>
+          </cell>
+          <cell r="O6">
+            <v>50.4</v>
+          </cell>
+          <cell r="P6">
+            <v>50.4</v>
+          </cell>
+          <cell r="Q6">
+            <v>50.4</v>
+          </cell>
+          <cell r="R6">
+            <v>50.4</v>
+          </cell>
+          <cell r="S6">
+            <v>50.4</v>
+          </cell>
+          <cell r="T6">
+            <v>50.4</v>
+          </cell>
+          <cell r="U6">
+            <v>26.03</v>
+          </cell>
+          <cell r="V6">
+            <v>50.4</v>
+          </cell>
+          <cell r="W6">
+            <v>50.4</v>
+          </cell>
+          <cell r="X6">
+            <v>26.03</v>
+          </cell>
+          <cell r="Y6">
+            <v>50.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1903,15 +3408,15 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1925,21 +3430,21 @@
         <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F1" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G1" s="1">
         <v>0.1</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2040</v>
       </c>
     </row>
@@ -1954,12 +3459,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +3541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2137,7 +3642,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2238,7 +3743,7 @@
         <v>31.17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2339,7 +3844,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2440,7 +3945,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2552,12 +4057,12 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +4139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2735,7 +4240,7 @@
         <v>10.551752762133248</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2836,7 +4341,7 @@
         <v>23.976234024951985</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2937,7 +4442,7 @@
         <v>16.418748276994769</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3038,7 +4543,7 @@
         <v>7.800562774938296</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3139,7 +4644,7 @@
         <v>3.3146867315601822</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3175,12 +4680,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +4762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3358,7 +4863,7 @@
         <v>49.057363627090702</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3459,7 +4964,7 @@
         <v>49.057363627090702</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3560,7 +5065,7 @@
         <v>64.724782911598496</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3661,7 +5166,7 @@
         <v>51.896945260460591</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3772,12 +5277,12 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3854,7 +5359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3955,7 +5460,7 @@
         <v>19.744483964326822</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4056,7 +5561,7 @@
         <v>22.727702022730984</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4157,7 +5662,7 @@
         <v>19.744483964326822</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4258,7 +5763,7 @@
         <v>24.318751653879875</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4357,6 +5862,2421 @@
       <c r="Y6" s="2">
         <f>'[1]Tertiary Reserve Down, Winter'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>32.715958040498997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51365E97-6E69-401A-9DFD-893A2C3FF085}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Energy, Summer'!B2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Energy, Summer'!C2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Energy, Summer'!D2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.69</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Energy, Summer'!E2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Energy, Summer'!F2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Energy, Summer'!G2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.22</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Energy, Summer'!H2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.18</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Energy, Summer'!I2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.7</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Energy, Summer'!J2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.63</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Energy, Summer'!K2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Energy, Summer'!L2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.26</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Energy, Summer'!M2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.77</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Energy, Summer'!N2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Energy, Summer'!O2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.99</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Energy, Summer'!P2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.99</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Energy, Summer'!Q2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.53</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Energy, Summer'!R2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Energy, Summer'!S2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.57</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Energy, Summer'!T2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.77</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Energy, Summer'!U2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.36</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Energy, Summer'!V2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.07</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Energy, Summer'!W2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.11</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Energy, Summer'!X2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.92</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Energy, Summer'!Y2*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Energy, Summer'!B3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.47</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Energy, Summer'!C3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.79</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Energy, Summer'!D3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.16</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Energy, Summer'!E3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Energy, Summer'!F3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Energy, Summer'!G3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.77</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Energy, Summer'!H3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Energy, Summer'!I3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.85</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Energy, Summer'!J3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.26</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Energy, Summer'!K3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.4</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Energy, Summer'!L3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.15</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Energy, Summer'!M3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.520000000000003</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Energy, Summer'!N3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.979999999999997</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Energy, Summer'!O3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.5</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Energy, Summer'!P3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.130000000000003</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Energy, Summer'!Q3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.57</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Energy, Summer'!R3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Energy, Summer'!S3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Energy, Summer'!T3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Energy, Summer'!U3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Energy, Summer'!V3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.42</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Energy, Summer'!W3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Energy, Summer'!X3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.01</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Energy, Summer'!Y3*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Energy, Summer'!B4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.19</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Energy, Summer'!C4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Energy, Summer'!D4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Energy, Summer'!E4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.5</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Energy, Summer'!F4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.04</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Energy, Summer'!G4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.82</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Energy, Summer'!H4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>29.24</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Energy, Summer'!I4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.03</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Energy, Summer'!J4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.22</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Energy, Summer'!K4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Energy, Summer'!L4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Energy, Summer'!M4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Energy, Summer'!N4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.65</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Energy, Summer'!O4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39.93</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Energy, Summer'!P4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Energy, Summer'!Q4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.65</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Energy, Summer'!R4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.51</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Energy, Summer'!S4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Energy, Summer'!T4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.56</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Energy, Summer'!U4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.32</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Energy, Summer'!V4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.5</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Energy, Summer'!W4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Energy, Summer'!X4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.72</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Energy, Summer'!Y4*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Energy, Summer'!B5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.65</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Energy, Summer'!C5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Energy, Summer'!D5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.7</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Energy, Summer'!E5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Energy, Summer'!F5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>25.1</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Energy, Summer'!G5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.51</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Energy, Summer'!H5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.64</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Energy, Summer'!I5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39.270000000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Energy, Summer'!J5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Energy, Summer'!K5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.68</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Energy, Summer'!L5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Energy, Summer'!M5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.659999999999997</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Energy, Summer'!N5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.28</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Energy, Summer'!O5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Energy, Summer'!P5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.65</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Energy, Summer'!Q5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.840000000000003</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Energy, Summer'!R5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Energy, Summer'!S5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Energy, Summer'!T5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.18</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Energy, Summer'!U5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.1</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Energy, Summer'!V5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.99</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Energy, Summer'!W5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>39</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Energy, Summer'!X5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>38.99</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Energy, Summer'!Y5*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Energy, Summer'!B6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Energy, Summer'!C6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Energy, Summer'!D6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Energy, Summer'!E6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.5</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Energy, Summer'!F6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>26.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Energy, Summer'!G6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>27.2</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Energy, Summer'!H6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.56</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Energy, Summer'!I6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>28.34</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Energy, Summer'!J6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.02</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Energy, Summer'!K6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>31.18</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Energy, Summer'!L6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.53</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Energy, Summer'!M6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>30.47</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Energy, Summer'!N6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.49</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Energy, Summer'!O6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Energy, Summer'!P6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.74</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Energy, Summer'!Q6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>34.49</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Energy, Summer'!R6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.99</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Energy, Summer'!S6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>33.49</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Energy, Summer'!T6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>32.24</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Energy, Summer'!U6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>35.01</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Energy, Summer'!V6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Energy, Summer'!W6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Energy, Summer'!X6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>37</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Energy, Summer'!Y6*(1+[1]Main!$B$2)^(Scenarios!$B$3-2020)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB008B8-ED0A-4A84-975C-A342158CCFB6}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.2039191632574626</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.667697295091843</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.5409818169454264</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.7951077996983749</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.5022409690978797</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.3475555882917378</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.048955771867275</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.258885931532753</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.78378083334246</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.8944093963531579</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.5683956984370599</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.048955771867275</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.618185502056475</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.4304922592267539</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.2481149863449321</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.8833604405812885</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.4303532539347312</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.3032207599122447</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.14881338969015</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.7731488934466633</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>3.1047565718947041</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>3.1047565718947041</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>3.6793022720318027</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y2*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.9109133273649466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.452173154894417</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>13.523921864765544</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.2479759810529085</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4358082291746523</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.7672769023306714</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.8667175042774762</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>19.810777698958024</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>17.23637100411295</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.916368302604868</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.640144408308187</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.5187449001096684</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.8060177501782171</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.032451840855485</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.8779054653413665</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.1762272711817836</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.6623813251439437</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.3972063866191284</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.2979047899643472</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.3587435493556281</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.6737082914998576</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.6296514737044112</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>3.093707616122837</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>2.3092317563202602</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y3*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>13.623362466712351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.4967859938579577</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.9219622831368142</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.441402209706597</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.529793855881536</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.441402209706597</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.529793855881536</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.0932906002467675</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.9441991999725712</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.4248982786948083</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.2481149863449321</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.3531495688236834</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.4581841513024338</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.0935686108308138</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.0935686108308138</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.7509119766109054</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.0935686108308138</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.0935686108308138</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.14881338969015</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.1653173207019396</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.1432194091582044</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.6239184878804425</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>4.78419784921853</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>5.1046175666026814</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y4*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.679024261447756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.253291951000808</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>20.981967010775953</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.733991029723045</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.733991029723045</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.733991029723045</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.733991029723045</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.5130119142857</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.4248982786948083</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.6900732172196236</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.2425210058129874</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.579305648916904</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.386018425555239</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.3474165829997151</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.5352488311214589</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.3474165829997151</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>12.032312835563463</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.905319346833</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.9054583521250237</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.9054583521250237</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.6678363003838648</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.8172057112421083</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.2923108094324007</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.3200027015080806</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y5*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>11.336228621935824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!B6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.375108475075395</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!C6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.441263204414573</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!D6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.9939890035919854</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!E6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.5132899248697465</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!F6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.5132899248697465</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!G6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.9055973574170464</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!H6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.5850386347408723</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!I6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.441263204414573</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!J6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.187137221661628</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!K6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.5241998753495896</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!L6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.8337096422538979</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!M6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.1044785613106578</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!N6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.463639126542355</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!O6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.1155275170825254</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!P6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.5022409690978797</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Q6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.9938499982999627</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!R6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.4026613618590513</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!S6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>10.131892442802291</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!T6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>9.7120321234713334</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!U6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.3972063866191284</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!V6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>6.9497931805045159</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!W6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.3144087209761359</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!X6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>7.2149681190293311</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Secondary Reserve, Summer'!Y6*(1+[1]Main!$B$3)^(Scenarios!$B$3-2020)</f>
+        <v>8.8281156617219523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DC1DB-E732-4F79-89B1-5F652B3EE8D7}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>40.21819900959688</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>40.21819900959688</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>40.21819900959688</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>40.21819900959688</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>46.405614241842557</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.986031933095646</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.986031933095646</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y2*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.77624077872219</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.77624077872219</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y3*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>76.281990648971671</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.986031933095646</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.986031933095646</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>104.96507983273911</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y4*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>40.881136355908914</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.433723149794304</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.77624077872219</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>42.427990163970335</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.062679597038596</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.977970936120947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!B6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.554427631532704</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!C6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!D6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!E6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!F6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!G6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!H6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>52.173169154757268</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!I6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>71.420450109350071</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!J6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!K6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!L6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>39.77624077872219</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!M6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>41.323094586783604</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!N6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!O6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!P6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Q6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!R6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!S6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!T6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!U6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!V6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!W6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.466035985357763</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!X6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.443938073814031</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Tertiary Reserve Up, Summer'!Y6*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <v>51.587574498848305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06EB1E-49A0-417F-AD8B-905096775CB2}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="D2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="E2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.53288574115706</v>
+      </c>
+      <c r="F2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="G2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="H2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.086515074732624</v>
+      </c>
+      <c r="I2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.354452252200407</v>
+      </c>
+      <c r="J2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>22.49567395152177</v>
+      </c>
+      <c r="L2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="M2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>66.293734631203648</v>
+      </c>
+      <c r="N2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>32.053020694186969</v>
+      </c>
+      <c r="O2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>32.064069649958832</v>
+      </c>
+      <c r="P2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>32.064069649958832</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="R2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="S2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="T2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="U2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="V2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.146867315601824</v>
+      </c>
+      <c r="W2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="X2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28.727285006854913</v>
+      </c>
+      <c r="D3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28.727285006854913</v>
+      </c>
+      <c r="E3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.649803311159818</v>
+      </c>
+      <c r="F3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>37.131857363988615</v>
+      </c>
+      <c r="G3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.9313431754044</v>
+      </c>
+      <c r="H3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.086515074732624</v>
+      </c>
+      <c r="I3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="J3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.354452252200407</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="L3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="M3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="N3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="O3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="P3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="R3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="S3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.124769404058092</v>
+      </c>
+      <c r="T3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="U3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="V3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="W3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.937076161228369</v>
+      </c>
+      <c r="X3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>47.731488934466633</v>
+      </c>
+      <c r="D4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>47.731488934466633</v>
+      </c>
+      <c r="E4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.53288574115706</v>
+      </c>
+      <c r="F4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.53288574115706</v>
+      </c>
+      <c r="G4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.53288574115706</v>
+      </c>
+      <c r="H4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="I4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="J4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="L4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="M4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="N4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="O4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="P4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="R4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="S4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="T4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="U4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="V4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="W4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="X4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y4*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>17.23637100411295</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>47.731488934466633</v>
+      </c>
+      <c r="D5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>41.39675429192939</v>
+      </c>
+      <c r="E5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>37.091344526158444</v>
+      </c>
+      <c r="F5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>43.53288574115706</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.9313431754044</v>
+      </c>
+      <c r="H5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.086515074732624</v>
+      </c>
+      <c r="I5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="J5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>27.500850916177647</v>
+      </c>
+      <c r="L5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28.727285006854913</v>
+      </c>
+      <c r="M5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>39.22747597538612</v>
+      </c>
+      <c r="N5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="O5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="P5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="R5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="S5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="T5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="U5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="V5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="W5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>30.914978249684637</v>
+      </c>
+      <c r="X5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>24.329800609651738</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!B6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!C6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>20.672596249163671</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!D6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>47.731488934466633</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>37.091344526158444</v>
+      </c>
+      <c r="F6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!F6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>37.131857363988615</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>33.9313431754044</v>
+      </c>
+      <c r="H6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!H6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>23.258051899780614</v>
+      </c>
+      <c r="I6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!I6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>23.258051899780614</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!J6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>23.258051899780614</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!K6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>20.672596249163671</v>
+      </c>
+      <c r="L6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!L6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>20.672596249163671</v>
+      </c>
+      <c r="M6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!M6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28.760431874170518</v>
+      </c>
+      <c r="N6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!N6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>58.007017802303196</v>
+      </c>
+      <c r="O6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!O6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="P6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!P6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Q6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="R6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!R6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="S6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!S6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="T6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!T6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="U6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!U6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28.760431874170518</v>
+      </c>
+      <c r="V6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!V6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="W6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!W6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
+      </c>
+      <c r="X6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!X6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>28.760431874170518</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>'[1]Tertiary Reserve Down, Summer'!Y6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <v>55.686737090211061</v>
       </c>
     </row>
   </sheetData>
